--- a/importance_scores/importance_scores_glass.xlsx
+++ b/importance_scores/importance_scores_glass.xlsx
@@ -1,93 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>PFBI FuzzyCMeans</t>
-  </si>
-  <si>
-    <t>SHAP FuzzyCMeans</t>
-  </si>
-  <si>
-    <t>PFBI KMeans</t>
-  </si>
-  <si>
-    <t>SHAP KMeans</t>
-  </si>
-  <si>
-    <t>PFBI Spectral</t>
-  </si>
-  <si>
-    <t>SHAP Spectral</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -121,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -418,217 +353,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>features</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PBFI FuzzyCMeans</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>SHAP FuzzyCMeans</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PFBI KMeans</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>SHAP KMeans</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.08892308469362782</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09175187418418716</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.09279909211422227</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3164625523543337</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>F2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.07779308802806471</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07546788575638913</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.06134577728568917</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.07649408279921838</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>F3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3198636386797815</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3580911551982709</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2225669231885447</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6475191740597029</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1130423982951795</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1002161108669963</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1350299225544115</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2133196979842972</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.07273568191603445</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09899524907209049</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.09080696014274442</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2270043859101857</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>F6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.03121249526800026</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02141792966477199</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1658284662484823</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02525253470532581</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>F7</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.09694897752116503</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.06642592951207094</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.09070061529945993</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1975729494639441</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>0.08892308469362786</v>
-      </c>
-      <c r="D2">
-        <v>0.09175187418418718</v>
-      </c>
-      <c r="E2">
-        <v>0.09279909211422227</v>
-      </c>
-      <c r="F2">
-        <v>0.3164625523543333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>F8</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.08577147953399875</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.06060765235553818</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.06020425476092577</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.084804817638471</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>0.07779308802806466</v>
-      </c>
-      <c r="D3">
-        <v>0.07546788575638927</v>
-      </c>
-      <c r="E3">
-        <v>0.06134577728568917</v>
-      </c>
-      <c r="F3">
-        <v>0.07649408279921845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>0.3198636386797816</v>
-      </c>
-      <c r="D4">
-        <v>0.3580911551982711</v>
-      </c>
-      <c r="E4">
-        <v>0.2225669231885447</v>
-      </c>
-      <c r="F4">
-        <v>0.6475191740597029</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>0.1130423982951795</v>
-      </c>
-      <c r="D5">
-        <v>0.1002161108669965</v>
-      </c>
-      <c r="E5">
-        <v>0.1350299225544115</v>
-      </c>
-      <c r="F5">
-        <v>0.2133196979842974</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>0.07273568191603448</v>
-      </c>
-      <c r="D6">
-        <v>0.09899524907209083</v>
-      </c>
-      <c r="E6">
-        <v>0.09080696014274442</v>
-      </c>
-      <c r="F6">
-        <v>0.2270043859101863</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>0.03121249526800026</v>
-      </c>
-      <c r="D7">
-        <v>0.02141792966477206</v>
-      </c>
-      <c r="E7">
-        <v>0.1658284662484823</v>
-      </c>
-      <c r="F7">
-        <v>0.02525253470532593</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>0.09694897752116508</v>
-      </c>
-      <c r="D8">
-        <v>0.06642592951207094</v>
-      </c>
-      <c r="E8">
-        <v>0.09070061529945993</v>
-      </c>
-      <c r="F8">
-        <v>0.1975729494639438</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>0.08577147953399868</v>
-      </c>
-      <c r="D9">
-        <v>0.06060765235553804</v>
-      </c>
-      <c r="E9">
-        <v>0.06020425476092577</v>
-      </c>
-      <c r="F9">
-        <v>0.08480481763847125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>0.1137091560641479</v>
-      </c>
-      <c r="D10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>F9</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.113709156064148</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.2586144501136275</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>0.08071798840551996</v>
       </c>
-      <c r="F10">
-        <v>0.6300699825450917</v>
+      <c r="F10" t="n">
+        <v>0.6300699825450919</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>